--- a/docss/trend/spain/E_silicosis.xlsx
+++ b/docss/trend/spain/E_silicosis.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16425" windowHeight="12195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ej11_Silicosis_Comarcas" sheetId="1" r:id="rId1"/>
     <sheet name="Tasa_anual_Ej11_Silicosis" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -12810,7 +12810,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B1" sqref="B1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12834,13 +12834,13 @@
         <v>1999</v>
       </c>
       <c r="B2">
-        <v>0.29417908043622398</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="C2">
-        <v>0.70299488442370694</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="D2">
-        <v>9.7144675136063303E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12848,13 +12848,13 @@
         <v>2000</v>
       </c>
       <c r="B3">
-        <v>0.297101405561848</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="C3">
-        <v>0.70137241455073096</v>
+        <v>0.70099999999999996</v>
       </c>
       <c r="D3">
-        <v>4.3295495720331E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -12862,13 +12862,13 @@
         <v>2001</v>
       </c>
       <c r="B4">
-        <v>0.23198022287040501</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="C4">
-        <v>0.55017442935342398</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D4">
-        <v>9.5523528639147905E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -12876,13 +12876,13 @@
         <v>2002</v>
       </c>
       <c r="B5">
-        <v>0.26056839746481802</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="C5">
-        <v>0.61780219882988296</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="D5">
-        <v>9.1742382801972902E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -12890,13 +12890,13 @@
         <v>2003</v>
       </c>
       <c r="B6">
-        <v>0.22037400119320699</v>
+        <v>0.22</v>
       </c>
       <c r="C6">
-        <v>0.52384416167481596</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="D6">
-        <v>8.6757451109465093E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -12904,13 +12904,13 @@
         <v>2004</v>
       </c>
       <c r="B7">
-        <v>0.21764567674826801</v>
+        <v>0.218</v>
       </c>
       <c r="C7">
-        <v>0.53523674935490395</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="D7">
-        <v>4.5904554718975803E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -12918,13 +12918,13 @@
         <v>2005</v>
       </c>
       <c r="B8">
-        <v>0.23286415736136901</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="C8">
-        <v>0.47636937599059298</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="D8">
-        <v>6.4601856668309698E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -12932,13 +12932,13 @@
         <v>2006</v>
       </c>
       <c r="B9">
-        <v>0.16452650107805</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="C9">
-        <v>0.39932335568528399</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="D9">
-        <v>3.1192628104693E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -12946,13 +12946,13 @@
         <v>2007</v>
       </c>
       <c r="B10">
-        <v>0.16220343373732701</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="C10">
-        <v>0.389139927835711</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="D10">
-        <v>1.47499831758004E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -12960,13 +12960,13 @@
         <v>2008</v>
       </c>
       <c r="B11">
-        <v>0.126285977306729</v>
+        <v>0.126</v>
       </c>
       <c r="C11">
-        <v>0.30816309512025503</v>
+        <v>0.308</v>
       </c>
       <c r="D11">
-        <v>4.9630530260121103E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -12974,13 +12974,13 @@
         <v>2009</v>
       </c>
       <c r="B12">
-        <v>0.18378732578628099</v>
+        <v>0.184</v>
       </c>
       <c r="C12">
-        <v>0.42260257860332401</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="D12">
-        <v>2.2298691981319299E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -12988,13 +12988,13 @@
         <v>2010</v>
       </c>
       <c r="B13">
-        <v>0.155053798936097</v>
+        <v>0.155</v>
       </c>
       <c r="C13">
-        <v>0.38906559191399398</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="D13">
-        <v>6.6997017795245402E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -13002,13 +13002,13 @@
         <v>2011</v>
       </c>
       <c r="B14">
-        <v>0.11449219159837599</v>
+        <v>0.114</v>
       </c>
       <c r="C14">
-        <v>0.27808340369874301</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="D14">
-        <v>7.6022272987185001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -13016,13 +13016,13 @@
         <v>2012</v>
       </c>
       <c r="B15">
-        <v>0.104088953388912</v>
+        <v>0.104</v>
       </c>
       <c r="C15">
-        <v>0.25867389321390999</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="D15">
-        <v>5.8222669231442403E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -13030,13 +13030,13 @@
         <v>2013</v>
       </c>
       <c r="B16">
-        <v>0.102565534149464</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="C16">
-        <v>0.25520930327622499</v>
+        <v>0.255</v>
       </c>
       <c r="D16">
-        <v>6.8230044417758899E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
